--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -165,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -223,7 +217,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -333,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -527,26 +521,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +598,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1616,19 +1610,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1659,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1784,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2779,19 +2773,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
